--- a/biology/Médecine/Louise_Chevalier_(médecin)/Louise_Chevalier_(médecin).xlsx
+++ b/biology/Médecine/Louise_Chevalier_(médecin)/Louise_Chevalier_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louise_Chevalier_(m%C3%A9decin)</t>
+          <t>Louise_Chevalier_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise Chevalier, O.C., M.D., D.C.L., F.R.C.P., est une médecin québécoise.
 Elle est la fondatrice de la clinique pour enfants leucémiques et la directrice de la clinique oncologique de l'Hôpital de Montréal pour enfants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louise_Chevalier_(m%C3%A9decin)</t>
+          <t>Louise_Chevalier_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1987 - Officier de l'Ordre du Canada
  Portail du Québec   Portail de la médecine                    </t>
